--- a/notebooks/newupdates.xlsx
+++ b/notebooks/newupdates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="983">
   <si>
     <t>Timestamp</t>
   </si>
@@ -112,139 +112,142 @@
     <t>full statehood for delhi</t>
   </si>
   <si>
+    <t>empower delhi lawyers and judiciary</t>
+  </si>
+  <si>
+    <t>governance on the mobile phone</t>
+  </si>
+  <si>
+    <t>promote rain water harvesting</t>
+  </si>
+  <si>
+    <t>contractual posts to be regularised</t>
+  </si>
+  <si>
+    <t>build 2 lakh public toilets</t>
+  </si>
+  <si>
+    <t>augmenting water resources</t>
+  </si>
+  <si>
+    <t>fair transparent water pricing</t>
+  </si>
+  <si>
+    <t>free lifeline water</t>
+  </si>
+  <si>
+    <t>water as right</t>
+  </si>
+  <si>
+    <t>water from munak canal</t>
+  </si>
+  <si>
+    <t>effective last mile connectivity</t>
+  </si>
+  <si>
+    <t>reducing pollution</t>
+  </si>
+  <si>
+    <t>cctv's in public spaces &amp; buses</t>
+  </si>
+  <si>
+    <t>women's security force</t>
+  </si>
+  <si>
+    <t>wi-fi delhi</t>
+  </si>
+  <si>
+    <t>unified transport authority</t>
+  </si>
+  <si>
+    <t>metro rail 2.0</t>
+  </si>
+  <si>
+    <t>revive the yamuna</t>
+  </si>
+  <si>
+    <t>suraksha button</t>
+  </si>
+  <si>
+    <t>just and fair policy for e-rickshaws</t>
+  </si>
+  <si>
+    <t>fair arrangement for autodrivers</t>
+  </si>
+  <si>
+    <t>drug-free delhi</t>
+  </si>
+  <si>
+    <t>empowering the disabled</t>
+  </si>
+  <si>
+    <t>respecting our ex-servicemen</t>
+  </si>
+  <si>
+    <t>development and equality for all minorities</t>
+  </si>
+  <si>
+    <t>dignity to the safai karamchari</t>
+  </si>
+  <si>
+    <t>ensuring the rights of the marginalised</t>
+  </si>
+  <si>
+    <t>promote sports culture</t>
+  </si>
+  <si>
+    <t>promoting punjabi, sanskrit and urdu</t>
+  </si>
+  <si>
+    <t>preserving our heritage &amp; literature</t>
+  </si>
+  <si>
+    <t>freehold of resettlement colonies</t>
+  </si>
+  <si>
+    <t>regularisation &amp; transformation of unauthorised colonies</t>
+  </si>
+  <si>
+    <t>affordable housing for all</t>
+  </si>
+  <si>
+    <t>in situ development of slums</t>
+  </si>
+  <si>
+    <t>taking care of our senior citizens</t>
+  </si>
+  <si>
+    <t>controlling price rise</t>
+  </si>
+  <si>
+    <t>crack down on water mafia</t>
+  </si>
+  <si>
+    <t>justice for victims of anti-sikh 1984 carnage</t>
+  </si>
+  <si>
+    <t>swaraj bill</t>
+  </si>
+  <si>
+    <t>delhi to be made a trade and retail hub</t>
+  </si>
+  <si>
+    <t>no fdi in retail</t>
+  </si>
+  <si>
+    <t>lowest vat regime</t>
+  </si>
+  <si>
+    <t>end of vat raids and inspector raj</t>
+  </si>
+  <si>
+    <t>simplifying vat rules</t>
+  </si>
+  <si>
+    <t>better waste management</t>
+  </si>
+  <si>
     <t>delhi's villages to receive special attention</t>
-  </si>
-  <si>
-    <t>governance on the mobile phone</t>
-  </si>
-  <si>
-    <t>promote rain water harvesting</t>
-  </si>
-  <si>
-    <t>contractual posts to be regularised</t>
-  </si>
-  <si>
-    <t>metro rail 2.0</t>
-  </si>
-  <si>
-    <t>augmenting water resources</t>
-  </si>
-  <si>
-    <t>fair transparent water pricing</t>
-  </si>
-  <si>
-    <t>free lifeline water</t>
-  </si>
-  <si>
-    <t>water as right</t>
-  </si>
-  <si>
-    <t>water from munak canal</t>
-  </si>
-  <si>
-    <t>effective last mile connectivity</t>
-  </si>
-  <si>
-    <t>reducing pollution</t>
-  </si>
-  <si>
-    <t>cctv's in public spaces &amp; buses</t>
-  </si>
-  <si>
-    <t>women's security force</t>
-  </si>
-  <si>
-    <t>wi-fi delhi</t>
-  </si>
-  <si>
-    <t>unified transport authority</t>
-  </si>
-  <si>
-    <t>revive the yamuna</t>
-  </si>
-  <si>
-    <t>suraksha button</t>
-  </si>
-  <si>
-    <t>just and fair policy for e-rickshaws</t>
-  </si>
-  <si>
-    <t>fair arrangement for autodrivers</t>
-  </si>
-  <si>
-    <t>drug-free delhi</t>
-  </si>
-  <si>
-    <t>empowering the disabled</t>
-  </si>
-  <si>
-    <t>respecting our ex-servicemen</t>
-  </si>
-  <si>
-    <t>development and equality for all minorities</t>
-  </si>
-  <si>
-    <t>dignity to the safai karamchari</t>
-  </si>
-  <si>
-    <t>ensuring the rights of the marginalised</t>
-  </si>
-  <si>
-    <t>promote sports culture</t>
-  </si>
-  <si>
-    <t>promoting punjabi, sanskrit and urdu</t>
-  </si>
-  <si>
-    <t>preserving our heritage &amp; literature</t>
-  </si>
-  <si>
-    <t>freehold of resettlement colonies</t>
-  </si>
-  <si>
-    <t>regularisation &amp; transformation of unauthorised colonies</t>
-  </si>
-  <si>
-    <t>affordable housing for all</t>
-  </si>
-  <si>
-    <t>in situ development of slums</t>
-  </si>
-  <si>
-    <t>taking care of our senior citizens</t>
-  </si>
-  <si>
-    <t>controlling price rise</t>
-  </si>
-  <si>
-    <t>crack down on water mafia</t>
-  </si>
-  <si>
-    <t>justice for victims of anti-sikh 1984 carnage</t>
-  </si>
-  <si>
-    <t>swaraj bill</t>
-  </si>
-  <si>
-    <t>delhi to be made a trade and retail hub</t>
-  </si>
-  <si>
-    <t>no fdi in retail</t>
-  </si>
-  <si>
-    <t>lowest vat regime</t>
-  </si>
-  <si>
-    <t>end of vat raids and inspector raj</t>
-  </si>
-  <si>
-    <t>simplifying vat rules</t>
-  </si>
-  <si>
-    <t>better waste management</t>
-  </si>
-  <si>
-    <t>empower delhi lawyers and judiciary</t>
   </si>
   <si>
     <t>pro-farmer land reform</t>
@@ -2443,6 +2446,9 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=19KIdeo_38mCNl2b5Pkg2WcdtOz9pv2CM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FPaJO1OIcNXpypImQukzTyXvkV7mWXJA, https://drive.google.com/open?id=1M6BhhO_7X0oJAtY5iEE5tUSHz5bfpSSP, https://drive.google.com/open?id=1aS8Fb0FdkVYecIkd4hR26w9PdfHh115X, https://drive.google.com/open?id=1GqXCSr0OFFdOts9VuL2Z3aIiJrXTvSFG, https://drive.google.com/open?id=1nExF3i_a5_2Xqh1_rY7ZnxFZj8Qn5ZSw</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1s6nR9hTy3o7ZBsRkeqoHmkWxOurRcVmj</t>
@@ -3598,28 +3604,28 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>43317</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="L2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3633,28 +3639,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>43701</v>
       </c>
       <c r="F3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="L3" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3668,31 +3674,31 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>42965</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="K4" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L4" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3706,31 +3712,31 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
         <v>43839</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="K5" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L5" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3744,31 +3750,31 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2">
         <v>43929</v>
       </c>
       <c r="F6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K6" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L6" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3782,31 +3788,31 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <v>43833</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="K7" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L7" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3820,31 +3826,31 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2">
         <v>44118</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="K8" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L8" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3858,31 +3864,31 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2">
         <v>43682</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K9" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L9" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3896,31 +3902,31 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2">
         <v>43283</v>
       </c>
       <c r="F10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="K10" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L10" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3934,31 +3940,31 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2">
         <v>44024</v>
       </c>
       <c r="F11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H11" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="K11" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L11" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3972,31 +3978,31 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2">
         <v>43510</v>
       </c>
       <c r="F12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="K12" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L12" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4010,31 +4016,31 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2">
         <v>43777</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="K13" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L13" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4048,31 +4054,31 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2">
         <v>43520</v>
       </c>
       <c r="F14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="K14" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L14" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4086,28 +4092,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2">
         <v>42786</v>
       </c>
       <c r="F15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H15" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="K15" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L15" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4121,28 +4127,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2">
         <v>43098</v>
       </c>
       <c r="F16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="K16" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L16" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4156,28 +4162,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2">
         <v>43373</v>
       </c>
       <c r="F17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H17" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="K17" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L17" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4191,28 +4197,28 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2">
         <v>43975</v>
       </c>
       <c r="F18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="K18" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L18" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4226,28 +4232,28 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2">
         <v>44077</v>
       </c>
       <c r="F19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="K19" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L19" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4261,28 +4267,28 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2">
         <v>43557</v>
       </c>
       <c r="F20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="K20" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L20" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4296,31 +4302,31 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2">
         <v>42458</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H21" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="K21" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L21" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4334,31 +4340,31 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2">
         <v>42802</v>
       </c>
       <c r="F22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="K22" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L22" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4372,31 +4378,31 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2">
         <v>43182</v>
       </c>
       <c r="F23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H23" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="K23" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L23" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4410,31 +4416,31 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E24" s="2">
         <v>43522</v>
       </c>
       <c r="F24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="K24" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="L24" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4448,25 +4454,25 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="2">
         <v>43836</v>
       </c>
       <c r="F25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H25" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="K25" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -4480,25 +4486,25 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2">
         <v>43520</v>
       </c>
       <c r="F26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="K26" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4512,25 +4518,25 @@
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2">
         <v>42401</v>
       </c>
       <c r="F27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H27" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="K27" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -4544,25 +4550,28 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2">
         <v>43839</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H28" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>739</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K28" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4576,28 +4585,28 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2">
         <v>43013</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K29" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -4611,28 +4620,28 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2">
         <v>43013</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H30" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K30" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4646,25 +4655,25 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2">
         <v>43013</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H31" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J31" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="K31" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -4678,25 +4687,25 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2">
         <v>43013</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H32" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="K32" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4710,25 +4719,25 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="2">
         <v>43013</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G33" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H33" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="K33" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4742,25 +4751,25 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E34" s="2">
         <v>42210</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H34" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="K34" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4774,25 +4783,25 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2">
         <v>42578</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K35" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4806,25 +4815,25 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2">
         <v>43341</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H36" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="K36" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4838,25 +4847,25 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2">
         <v>42533</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H37" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K37" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4870,25 +4879,25 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2">
         <v>42965</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H38" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K38" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4902,25 +4911,25 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2">
         <v>43700</v>
       </c>
       <c r="F39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H39" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="K39" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4934,25 +4943,25 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2">
         <v>43244</v>
       </c>
       <c r="F40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="K40" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4966,25 +4975,25 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2">
         <v>42326</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H41" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="K41" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4998,25 +5007,25 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2">
         <v>42927</v>
       </c>
       <c r="F42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G42" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H42" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="K42" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5030,25 +5039,25 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2">
         <v>42927</v>
       </c>
       <c r="F43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H43" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="K43" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5062,25 +5071,25 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2">
         <v>43865</v>
       </c>
       <c r="F44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H44" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="K44" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5094,25 +5103,25 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2">
         <v>43382</v>
       </c>
       <c r="F45" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H45" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="K45" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5126,28 +5135,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2">
         <v>43520</v>
       </c>
       <c r="F46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H46" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="K46" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -5161,25 +5170,25 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2">
         <v>43833</v>
       </c>
       <c r="F47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G47" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H47" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="K47" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5193,25 +5202,25 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2">
         <v>43864</v>
       </c>
       <c r="F48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H48" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="K48" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5225,25 +5234,25 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2">
         <v>43005</v>
       </c>
       <c r="F49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H49" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="K49" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5257,25 +5266,25 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2">
         <v>42887</v>
       </c>
       <c r="F50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G50" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H50" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="K50" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5289,25 +5298,25 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2">
         <v>43787</v>
       </c>
       <c r="F51" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H51" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="K51" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -5321,25 +5330,25 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2">
         <v>43522</v>
       </c>
       <c r="F52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H52" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="K52" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5353,25 +5362,25 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2">
         <v>43520</v>
       </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G53" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H53" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="K53" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5385,25 +5394,25 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2">
         <v>43867</v>
       </c>
       <c r="F54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G54" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H54" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="K54" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -5417,25 +5426,25 @@
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2">
         <v>43867</v>
       </c>
       <c r="F55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H55" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="K55" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5449,25 +5458,25 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2">
         <v>43867</v>
       </c>
       <c r="F56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H56" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K56" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5481,25 +5490,25 @@
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2">
         <v>43867</v>
       </c>
       <c r="F57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G57" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H57" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="K57" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5513,28 +5522,28 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2">
         <v>43867</v>
       </c>
       <c r="F58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G58" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H58" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K58" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5548,25 +5557,25 @@
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2">
         <v>43867</v>
       </c>
       <c r="F59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H59" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="K59" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5580,25 +5589,25 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2">
         <v>43867</v>
       </c>
       <c r="F60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H60" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="K60" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5612,25 +5621,25 @@
         <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2">
         <v>43867</v>
       </c>
       <c r="F61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H61" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="K61" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -5644,25 +5653,25 @@
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2">
         <v>43867</v>
       </c>
       <c r="F62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G62" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H62" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="K62" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -5676,25 +5685,25 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2">
         <v>43868</v>
       </c>
       <c r="F63" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G63" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H63" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K63" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -5708,22 +5717,22 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2">
         <v>43867</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G64" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H64" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K64" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -5737,25 +5746,25 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2">
         <v>43867</v>
       </c>
       <c r="F65" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G65" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H65" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="K65" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -5769,25 +5778,25 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2">
         <v>43868</v>
       </c>
       <c r="F66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H66" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="K66" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -5801,25 +5810,25 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2">
         <v>43868</v>
       </c>
       <c r="F67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G67" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H67" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="K67" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -5833,25 +5842,25 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2">
         <v>43868</v>
       </c>
       <c r="F68" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G68" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H68" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="K68" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -5865,25 +5874,25 @@
         <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2">
         <v>43672</v>
       </c>
       <c r="F69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G69" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H69" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="K69" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -5897,25 +5906,25 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2">
         <v>43522</v>
       </c>
       <c r="F70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G70" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H70" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="K70" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -5929,25 +5938,25 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2">
         <v>43772</v>
       </c>
       <c r="F71" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G71" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H71" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="K71" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -5961,25 +5970,25 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2">
         <v>43742</v>
       </c>
       <c r="F72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G72" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H72" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="K72" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -5993,25 +6002,25 @@
         <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2">
         <v>43777</v>
       </c>
       <c r="F73" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G73" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H73" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="K73" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6025,25 +6034,25 @@
         <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2">
         <v>43253</v>
       </c>
       <c r="F74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H74" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="K74" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6057,25 +6066,25 @@
         <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2">
         <v>43731</v>
       </c>
       <c r="F75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G75" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H75" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="K75" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6089,25 +6098,25 @@
         <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2">
         <v>43829</v>
       </c>
       <c r="F76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G76" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H76" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="K76" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6121,28 +6130,28 @@
         <v>28</v>
       </c>
       <c r="D77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2">
         <v>43811</v>
       </c>
       <c r="F77" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G77" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H77" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="K77" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6156,25 +6165,25 @@
         <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2">
         <v>43253</v>
       </c>
       <c r="F78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G78" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="K78" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6188,25 +6197,25 @@
         <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2">
         <v>43643</v>
       </c>
       <c r="F79" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G79" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H79" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="K79" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6220,25 +6229,25 @@
         <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2">
         <v>43766</v>
       </c>
       <c r="F80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G80" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K80" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6252,25 +6261,25 @@
         <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2">
         <v>43549</v>
       </c>
       <c r="F81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G81" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H81" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="K81" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6284,28 +6293,28 @@
         <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2">
         <v>43939</v>
       </c>
       <c r="F82" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G82" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H82" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="K82" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -6319,25 +6328,25 @@
         <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2">
         <v>42139</v>
       </c>
       <c r="F83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G83" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H83" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="K83" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -6351,28 +6360,28 @@
         <v>32</v>
       </c>
       <c r="D84" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2">
         <v>42958</v>
       </c>
       <c r="F84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H84" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K84" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -6386,28 +6395,28 @@
         <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2">
         <v>39701</v>
       </c>
       <c r="F85" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G85" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H85" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="K85" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -6421,25 +6430,25 @@
         <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2">
         <v>43719</v>
       </c>
       <c r="F86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G86" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H86" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="K86" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -6453,25 +6462,25 @@
         <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2">
         <v>43648</v>
       </c>
       <c r="F87" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G87" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H87" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="K87" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -6485,25 +6494,25 @@
         <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2">
         <v>43162</v>
       </c>
       <c r="F88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G88" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H88" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="K88" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -6517,25 +6526,25 @@
         <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2">
         <v>43549</v>
       </c>
       <c r="F89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G89" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H89" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="K89" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -6549,25 +6558,25 @@
         <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2">
         <v>43813</v>
       </c>
       <c r="F90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G90" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H90" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="K90" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -6581,25 +6590,25 @@
         <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2">
         <v>42940</v>
       </c>
       <c r="F91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G91" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H91" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K91" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -6613,25 +6622,25 @@
         <v>34</v>
       </c>
       <c r="D92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2">
         <v>43649</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G92" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H92" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="K92" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -6645,25 +6654,25 @@
         <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2">
         <v>43336</v>
       </c>
       <c r="F93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G93" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H93" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="K93" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -6677,28 +6686,28 @@
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2">
         <v>43462</v>
       </c>
       <c r="F94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G94" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H94" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="K94" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -6712,28 +6721,28 @@
         <v>37</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2">
         <v>43796</v>
       </c>
       <c r="F95" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G95" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H95" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="K95" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -6747,25 +6756,25 @@
         <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2">
         <v>43791</v>
       </c>
       <c r="F96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G96" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H96" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="K96" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -6779,28 +6788,28 @@
         <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2">
         <v>43125</v>
       </c>
       <c r="F97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G97" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H97" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="K97" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -6814,25 +6823,25 @@
         <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2">
         <v>42459</v>
       </c>
       <c r="F98" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G98" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H98" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="K98" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -6846,25 +6855,25 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E99" s="2">
         <v>43108</v>
       </c>
       <c r="F99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G99" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H99" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K99" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -6878,25 +6887,25 @@
         <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2">
         <v>43731</v>
       </c>
       <c r="F100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G100" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H100" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="K100" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -6910,28 +6919,28 @@
         <v>29</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2">
         <v>43830</v>
       </c>
       <c r="F101" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G101" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H101" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="K101" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6945,25 +6954,25 @@
         <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2">
         <v>43787</v>
       </c>
       <c r="F102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G102" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H102" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="K102" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -6977,25 +6986,25 @@
         <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2">
         <v>43803</v>
       </c>
       <c r="F103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G103" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H103" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="K103" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -7009,25 +7018,25 @@
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2">
         <v>43682</v>
       </c>
       <c r="F104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G104" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H104" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="K104" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -7041,25 +7050,25 @@
         <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2">
         <v>43672</v>
       </c>
       <c r="F105" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G105" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H105" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="K105" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -7073,25 +7082,25 @@
         <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2">
         <v>43615</v>
       </c>
       <c r="F106" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G106" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H106" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K106" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -7105,25 +7114,25 @@
         <v>41</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2">
         <v>43594</v>
       </c>
       <c r="F107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G107" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H107" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="K107" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7137,25 +7146,25 @@
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E108" s="2">
         <v>43868</v>
       </c>
       <c r="F108" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G108" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H108" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="K108" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -7169,25 +7178,25 @@
         <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2">
         <v>42919</v>
       </c>
       <c r="F109" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G109" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H109" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="K109" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -7201,25 +7210,25 @@
         <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2">
         <v>43060</v>
       </c>
       <c r="F110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G110" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H110" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="K110" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -7233,25 +7242,25 @@
         <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2">
         <v>43744</v>
       </c>
       <c r="F111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G111" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H111" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="K111" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -7265,25 +7274,25 @@
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2">
         <v>43117</v>
       </c>
       <c r="F112" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G112" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H112" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="K112" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -7297,25 +7306,25 @@
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2">
         <v>43868</v>
       </c>
       <c r="F113" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G113" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H113" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="K113" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -7329,25 +7338,25 @@
         <v>22</v>
       </c>
       <c r="D114" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2">
         <v>43748</v>
       </c>
       <c r="F114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G114" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H114" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K114" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -7361,25 +7370,25 @@
         <v>22</v>
       </c>
       <c r="D115" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2">
         <v>43733</v>
       </c>
       <c r="F115" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G115" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H115" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="K115" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -7393,28 +7402,28 @@
         <v>42</v>
       </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2">
         <v>43374</v>
       </c>
       <c r="F116" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G116" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H116" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K116" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -7428,25 +7437,25 @@
         <v>43</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2">
         <v>43868</v>
       </c>
       <c r="F117" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G117" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H117" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K117" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -7460,25 +7469,25 @@
         <v>43</v>
       </c>
       <c r="D118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E118" s="2">
         <v>43868</v>
       </c>
       <c r="F118" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G118" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H118" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="K118" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -7492,25 +7501,25 @@
         <v>43</v>
       </c>
       <c r="D119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2">
         <v>43868</v>
       </c>
       <c r="F119" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G119" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H119" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="K119" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -7524,25 +7533,25 @@
         <v>42</v>
       </c>
       <c r="D120" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2">
         <v>43773</v>
       </c>
       <c r="F120" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G120" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H120" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="K120" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -7556,25 +7565,25 @@
         <v>42</v>
       </c>
       <c r="D121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2">
         <v>42412</v>
       </c>
       <c r="F121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G121" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H121" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="K121" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -7588,25 +7597,25 @@
         <v>42</v>
       </c>
       <c r="D122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2">
         <v>43580</v>
       </c>
       <c r="F122" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G122" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H122" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="K122" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -7620,25 +7629,25 @@
         <v>42</v>
       </c>
       <c r="D123" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2">
         <v>43769</v>
       </c>
       <c r="F123" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G123" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H123" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="K123" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -7652,28 +7661,28 @@
         <v>44</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2">
         <v>43804</v>
       </c>
       <c r="F124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G124" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H124" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="K124" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -7687,25 +7696,25 @@
         <v>44</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2">
         <v>43639</v>
       </c>
       <c r="F125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G125" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H125" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="K125" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -7719,28 +7728,28 @@
         <v>45</v>
       </c>
       <c r="D126" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2">
         <v>43766</v>
       </c>
       <c r="F126" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G126" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H126" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="K126" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -7754,25 +7763,25 @@
         <v>43</v>
       </c>
       <c r="D127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2">
         <v>43868</v>
       </c>
       <c r="F127" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G127" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H127" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="K127" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -7786,25 +7795,25 @@
         <v>45</v>
       </c>
       <c r="D128" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2">
         <v>43057</v>
       </c>
       <c r="F128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G128" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H128" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="K128" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -7818,25 +7827,25 @@
         <v>43</v>
       </c>
       <c r="D129" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E129" s="2">
         <v>43868</v>
       </c>
       <c r="F129" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G129" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H129" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="K129" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -7850,25 +7859,25 @@
         <v>43</v>
       </c>
       <c r="D130" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2">
         <v>43868</v>
       </c>
       <c r="F130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G130" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H130" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K130" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -7882,25 +7891,25 @@
         <v>46</v>
       </c>
       <c r="D131" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2">
         <v>43803</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G131" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H131" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="K131" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -7914,25 +7923,25 @@
         <v>47</v>
       </c>
       <c r="D132" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E132" s="2">
         <v>43868</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G132" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H132" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="K132" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -7946,25 +7955,25 @@
         <v>47</v>
       </c>
       <c r="D133" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E133" s="2">
         <v>43868</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G133" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H133" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K133" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -7975,28 +7984,28 @@
         <v>43869.10807230324</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D134" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E134" s="2">
         <v>43868</v>
       </c>
       <c r="F134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G134" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H134" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K134" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -8007,28 +8016,28 @@
         <v>43869.11110887732</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D135" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E135" s="2">
         <v>43868</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G135" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H135" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="K135" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -8039,28 +8048,28 @@
         <v>43869.11385609954</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D136" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E136" s="2">
         <v>43868</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G136" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H136" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="K136" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -8074,25 +8083,25 @@
         <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E137" s="2">
         <v>43868</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G137" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H137" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="K137" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -8106,25 +8115,25 @@
         <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E138" s="2">
         <v>43868</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G138" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H138" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="K138" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -8138,25 +8147,25 @@
         <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E139" s="2">
         <v>43868</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G139" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H139" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="K139" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -8167,28 +8176,28 @@
         <v>43869.13769361111</v>
       </c>
       <c r="C140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D140" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E140" s="2">
         <v>43868</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G140" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H140" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="K140" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -8199,28 +8208,28 @@
         <v>43869.1414143287</v>
       </c>
       <c r="C141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D141" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E141" s="2">
         <v>43868</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G141" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H141" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="K141" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -8231,28 +8240,28 @@
         <v>43869.14462297453</v>
       </c>
       <c r="C142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D142" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E142" s="2">
         <v>43868</v>
       </c>
       <c r="F142" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G142" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H142" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="K142" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -8263,28 +8272,28 @@
         <v>43869.52253534722</v>
       </c>
       <c r="C143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D143" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E143" s="2">
         <v>42052</v>
       </c>
       <c r="F143" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G143" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H143" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="K143" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -8295,28 +8304,28 @@
         <v>43869.56004645833</v>
       </c>
       <c r="C144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D144" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E144" s="2">
         <v>43360</v>
       </c>
       <c r="F144" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G144" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H144" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="K144" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -8327,28 +8336,28 @@
         <v>43869.56596241898</v>
       </c>
       <c r="C145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E145" s="2">
         <v>43828</v>
       </c>
       <c r="F145" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G145" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H145" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="K145" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -8359,28 +8368,28 @@
         <v>43869.56909885417</v>
       </c>
       <c r="C146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D146" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E146" s="2">
         <v>43112</v>
       </c>
       <c r="F146" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G146" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H146" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="K146" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -8394,25 +8403,25 @@
         <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E147" s="2">
         <v>43867</v>
       </c>
       <c r="F147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G147" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H147" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K147" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -8426,25 +8435,25 @@
         <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E148" s="2">
         <v>43767</v>
       </c>
       <c r="F148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G148" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H148" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="K148" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -8458,25 +8467,25 @@
         <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E149" s="2">
         <v>43526</v>
       </c>
       <c r="F149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G149" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H149" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="K149" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -8490,25 +8499,25 @@
         <v>33</v>
       </c>
       <c r="D150" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E150" s="2">
         <v>42926</v>
       </c>
       <c r="F150" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G150" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H150" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="K150" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -8519,28 +8528,28 @@
         <v>43869.93102975695</v>
       </c>
       <c r="C151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E151" s="2">
         <v>43167</v>
       </c>
       <c r="F151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G151" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H151" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="K151" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -8551,28 +8560,28 @@
         <v>43869.93311890047</v>
       </c>
       <c r="C152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D152" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E152" s="2">
         <v>43796</v>
       </c>
       <c r="F152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G152" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H152" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="K152" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -8586,25 +8595,25 @@
         <v>33</v>
       </c>
       <c r="D153" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E153" s="2">
         <v>43353</v>
       </c>
       <c r="F153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G153" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H153" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="K153" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -8618,25 +8627,25 @@
         <v>37</v>
       </c>
       <c r="D154" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E154" s="2">
         <v>43781</v>
       </c>
       <c r="F154" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G154" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H154" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="K154" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -8650,25 +8659,25 @@
         <v>37</v>
       </c>
       <c r="D155" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E155" s="2">
         <v>43649</v>
       </c>
       <c r="F155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G155" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H155" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="K155" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -8682,25 +8691,25 @@
         <v>37</v>
       </c>
       <c r="D156" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E156" s="2">
         <v>43690</v>
       </c>
       <c r="F156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G156" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H156" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="K156" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -8711,28 +8720,28 @@
         <v>43874.52010319445</v>
       </c>
       <c r="C157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D157" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E157" s="2">
         <v>42925</v>
       </c>
       <c r="F157" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G157" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H157" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="K157" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -8743,28 +8752,28 @@
         <v>43874.52657207176</v>
       </c>
       <c r="C158" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D158" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E158" s="2">
         <v>41808</v>
       </c>
       <c r="F158" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G158" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H158" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="K158" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -8775,28 +8784,28 @@
         <v>43874.53485137731</v>
       </c>
       <c r="C159" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D159" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E159" s="2">
         <v>41898</v>
       </c>
       <c r="F159" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G159" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H159" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="K159" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -8807,28 +8816,28 @@
         <v>43874.62660695602</v>
       </c>
       <c r="C160" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D160" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E160" s="2">
         <v>43805</v>
       </c>
       <c r="F160" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G160" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H160" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="K160" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -8839,28 +8848,28 @@
         <v>43874.640658125</v>
       </c>
       <c r="C161" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D161" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E161" s="2">
         <v>43629</v>
       </c>
       <c r="F161" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G161" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H161" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="K161" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -8871,25 +8880,25 @@
         <v>43874.64278998843</v>
       </c>
       <c r="C162" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D162" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E162" s="2">
         <v>43874</v>
       </c>
       <c r="F162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K162" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -8900,28 +8909,28 @@
         <v>43874.65329059028</v>
       </c>
       <c r="C163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D163" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E163" s="2">
         <v>42103</v>
       </c>
       <c r="F163" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G163" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H163" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="K163" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -8932,25 +8941,25 @@
         <v>43874.65623143518</v>
       </c>
       <c r="C164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D164" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E164" s="2">
         <v>43874</v>
       </c>
       <c r="F164" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G164" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H164" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K164" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -8961,28 +8970,28 @@
         <v>43868.33751157407</v>
       </c>
       <c r="C165" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D165" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E165" s="2">
         <v>42716</v>
       </c>
       <c r="F165" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G165" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H165" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="K165" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -8993,28 +9002,28 @@
         <v>43868.37953703704</v>
       </c>
       <c r="C166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D166" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E166" s="2">
         <v>43849</v>
       </c>
       <c r="F166" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G166" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H166" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="K166" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -9025,28 +9034,28 @@
         <v>43868.38605324074</v>
       </c>
       <c r="C167" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D167" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E167" s="2">
         <v>43290</v>
       </c>
       <c r="F167" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G167" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H167" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="K167" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -9057,28 +9066,28 @@
         <v>43868.39331018519</v>
       </c>
       <c r="C168" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D168" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E168" s="2">
         <v>43324</v>
       </c>
       <c r="F168" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G168" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H168" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="K168" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -9089,28 +9098,28 @@
         <v>43868.62936342593</v>
       </c>
       <c r="C169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D169" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E169" s="2">
         <v>43461</v>
       </c>
       <c r="F169" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G169" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H169" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="K169" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -9121,16 +9130,16 @@
         <v>43868.63222222222</v>
       </c>
       <c r="C170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D170" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F170" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K170" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -9141,28 +9150,28 @@
         <v>43868.63592592593</v>
       </c>
       <c r="C171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D171" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E171" s="2">
         <v>40182</v>
       </c>
       <c r="F171" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G171" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H171" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K171" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -9173,28 +9182,28 @@
         <v>43868.65063657407</v>
       </c>
       <c r="C172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D172" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E172" s="2">
         <v>43478</v>
       </c>
       <c r="F172" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G172" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H172" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="K172" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -9205,28 +9214,28 @@
         <v>43868.66204861111</v>
       </c>
       <c r="C173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D173" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E173" s="2">
         <v>42677</v>
       </c>
       <c r="F173" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G173" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H173" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="K173" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -9237,28 +9246,28 @@
         <v>43868.69770833333</v>
       </c>
       <c r="C174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D174" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E174" s="2">
         <v>43828</v>
       </c>
       <c r="F174" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G174" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H174" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="K174" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -9269,28 +9278,28 @@
         <v>43868.72596064815</v>
       </c>
       <c r="C175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D175" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E175" s="2">
         <v>43698</v>
       </c>
       <c r="F175" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G175" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H175" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="K175" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -9301,13 +9310,13 @@
         <v>43868.73173611111</v>
       </c>
       <c r="C176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D176" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K176" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -9318,28 +9327,28 @@
         <v>43868.73971064815</v>
       </c>
       <c r="C177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D177" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E177" s="2">
         <v>42300</v>
       </c>
       <c r="F177" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G177" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H177" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="K177" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -9350,28 +9359,28 @@
         <v>43868.74789351852</v>
       </c>
       <c r="C178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D178" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E178" s="2">
         <v>43255</v>
       </c>
       <c r="F178" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G178" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H178" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="K178" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -9382,28 +9391,28 @@
         <v>43868.75217592593</v>
       </c>
       <c r="C179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D179" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E179" s="2">
         <v>43468</v>
       </c>
       <c r="F179" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G179" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H179" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="K179" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -9414,28 +9423,28 @@
         <v>43868.75806712963</v>
       </c>
       <c r="C180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D180" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E180" s="2">
         <v>42839</v>
       </c>
       <c r="F180" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G180" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H180" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="K180" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -9446,28 +9455,28 @@
         <v>43868.76150462963</v>
       </c>
       <c r="C181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D181" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E181" s="2">
         <v>43412</v>
       </c>
       <c r="F181" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G181" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H181" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="K181" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -9478,16 +9487,16 @@
         <v>43868.76408564814</v>
       </c>
       <c r="C182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D182" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F182" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K182" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -9498,13 +9507,13 @@
         <v>43868.77351851852</v>
       </c>
       <c r="C183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D183" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K183" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -9515,13 +9524,13 @@
         <v>43868.78165509259</v>
       </c>
       <c r="C184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D184" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K184" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -9532,31 +9541,31 @@
         <v>43868.78706018518</v>
       </c>
       <c r="C185" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D185" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E185" s="2">
         <v>42322</v>
       </c>
       <c r="F185" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G185" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H185" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="K185" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -9567,28 +9576,28 @@
         <v>43868.78902777778</v>
       </c>
       <c r="C186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D186" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E186" s="2">
         <v>43224</v>
       </c>
       <c r="F186" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G186" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H186" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="K186" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -9599,28 +9608,28 @@
         <v>43869.4671875</v>
       </c>
       <c r="C187" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D187" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E187" s="2">
         <v>43742</v>
       </c>
       <c r="F187" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G187" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H187" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="K187" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -9631,31 +9640,31 @@
         <v>43869.47826388889</v>
       </c>
       <c r="C188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D188" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E188" s="2">
         <v>42143</v>
       </c>
       <c r="F188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G188" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H188" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="K188" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -9666,28 +9675,28 @@
         <v>43869.48142361111</v>
       </c>
       <c r="C189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D189" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E189" s="2">
         <v>42425</v>
       </c>
       <c r="F189" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G189" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H189" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="K189" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -9695,13 +9704,13 @@
         <v>188</v>
       </c>
       <c r="C190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D190" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K190" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -9712,28 +9721,28 @@
         <v>43869.49636574074</v>
       </c>
       <c r="C191" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D191" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E191" s="2">
         <v>42545</v>
       </c>
       <c r="F191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G191" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H191" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="K191" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -9744,28 +9753,28 @@
         <v>43869.51047453703</v>
       </c>
       <c r="C192" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D192" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E192" s="2">
         <v>43783</v>
       </c>
       <c r="F192" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G192" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H192" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="K192" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -9776,28 +9785,28 @@
         <v>43869.52630787037</v>
       </c>
       <c r="C193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D193" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E193" s="2">
         <v>43160</v>
       </c>
       <c r="F193" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G193" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H193" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K193" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -9808,19 +9817,19 @@
         <v>43869.5384375</v>
       </c>
       <c r="C194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D194" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F194" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G194" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K194" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -9831,28 +9840,28 @@
         <v>43869.54215277778</v>
       </c>
       <c r="C195" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D195" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E195" s="2">
         <v>42169</v>
       </c>
       <c r="F195" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G195" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H195" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="K195" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -9863,28 +9872,28 @@
         <v>43869.61543981481</v>
       </c>
       <c r="C196" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D196" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E196" s="2">
         <v>42265</v>
       </c>
       <c r="F196" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G196" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H196" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="K196" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -9895,28 +9904,28 @@
         <v>43869.62184027778</v>
       </c>
       <c r="C197" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D197" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E197" s="2">
         <v>42066</v>
       </c>
       <c r="F197" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G197" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H197" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="K197" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -9927,16 +9936,16 @@
         <v>43869.63670138889</v>
       </c>
       <c r="C198" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D198" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F198" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K198" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -9947,16 +9956,16 @@
         <v>43869.64241898148</v>
       </c>
       <c r="C199" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D199" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F199" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K199" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -9967,28 +9976,28 @@
         <v>43869.66076388889</v>
       </c>
       <c r="C200" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D200" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E200" s="2">
         <v>42780</v>
       </c>
       <c r="F200" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G200" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H200" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="K200" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9999,28 +10008,28 @@
         <v>43869.67641203704</v>
       </c>
       <c r="C201" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D201" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E201" s="2">
         <v>43796</v>
       </c>
       <c r="F201" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G201" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H201" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K201" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -10031,31 +10040,31 @@
         <v>43869.68380787037</v>
       </c>
       <c r="C202" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D202" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E202" s="2">
         <v>43830</v>
       </c>
       <c r="F202" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G202" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H202" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="K202" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -10066,28 +10075,28 @@
         <v>43869.69579861111</v>
       </c>
       <c r="C203" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D203" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E203" s="2">
         <v>42780</v>
       </c>
       <c r="F203" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G203" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H203" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="K203" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -10098,28 +10107,28 @@
         <v>43869.71686342593</v>
       </c>
       <c r="C204" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D204" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E204" s="2">
         <v>42109</v>
       </c>
       <c r="F204" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G204" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H204" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="K204" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -10130,28 +10139,28 @@
         <v>43869.72950231482</v>
       </c>
       <c r="C205" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D205" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E205" s="2">
         <v>42773</v>
       </c>
       <c r="F205" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G205" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H205" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="K205" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -10162,28 +10171,28 @@
         <v>43869.83704861111</v>
       </c>
       <c r="C206" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D206" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E206" s="2">
         <v>43717</v>
       </c>
       <c r="F206" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G206" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H206" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="K206" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -10194,28 +10203,28 @@
         <v>43869.8443287037</v>
       </c>
       <c r="C207" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D207" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E207" s="2">
         <v>42052</v>
       </c>
       <c r="F207" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G207" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H207" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="K207" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -10226,28 +10235,28 @@
         <v>43869.86623842592</v>
       </c>
       <c r="C208" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D208" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E208" s="2">
         <v>42561</v>
       </c>
       <c r="F208" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G208" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H208" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="K208" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -10258,16 +10267,16 @@
         <v>43869.88210648148</v>
       </c>
       <c r="C209" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D209" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F209" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K209" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -10278,16 +10287,16 @@
         <v>43869.89247685186</v>
       </c>
       <c r="C210" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D210" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F210" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K210" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -10298,28 +10307,28 @@
         <v>43869.89489583333</v>
       </c>
       <c r="C211" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D211" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E211" s="2">
         <v>42741</v>
       </c>
       <c r="F211" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G211" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H211" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="K211" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -10330,28 +10339,28 @@
         <v>43869.90170138889</v>
       </c>
       <c r="C212" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D212" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E212" s="2">
         <v>43312</v>
       </c>
       <c r="F212" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G212" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H212" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="K212" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -10362,28 +10371,28 @@
         <v>43869.90785879629</v>
       </c>
       <c r="C213" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D213" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E213" s="2">
         <v>43743</v>
       </c>
       <c r="F213" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G213" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H213" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="K213" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -10394,28 +10403,28 @@
         <v>43869.91719907407</v>
       </c>
       <c r="C214" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D214" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E214" s="2">
         <v>42636</v>
       </c>
       <c r="F214" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G214" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H214" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="K214" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -10426,28 +10435,28 @@
         <v>43872.10340277778</v>
       </c>
       <c r="C215" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D215" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E215" s="2">
         <v>43246</v>
       </c>
       <c r="F215" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G215" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H215" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="K215" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -10458,28 +10467,28 @@
         <v>43872.10603009259</v>
       </c>
       <c r="C216" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D216" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E216" s="2">
         <v>42173</v>
       </c>
       <c r="F216" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G216" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H216" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="K216" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -10490,31 +10499,31 @@
         <v>43872.47861111111</v>
       </c>
       <c r="C217" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D217" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E217" s="2">
         <v>42164</v>
       </c>
       <c r="F217" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G217" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H217" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="K217" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -10525,28 +10534,28 @@
         <v>43872.61421296297</v>
       </c>
       <c r="C218" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D218" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E218" s="2">
         <v>42533</v>
       </c>
       <c r="F218" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G218" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H218" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="K218" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -10557,28 +10566,28 @@
         <v>43872.67921296296</v>
       </c>
       <c r="C219" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D219" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E219" s="2">
         <v>42533</v>
       </c>
       <c r="F219" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G219" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H219" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="K219" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -10589,28 +10598,28 @@
         <v>43873.58230324074</v>
       </c>
       <c r="C220" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D220" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E220" s="2">
         <v>42956</v>
       </c>
       <c r="F220" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G220" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H220" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="K220" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -10621,28 +10630,28 @@
         <v>43873.60398148148</v>
       </c>
       <c r="C221" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D221" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E221" s="2">
         <v>42599</v>
       </c>
       <c r="F221" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G221" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H221" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="K221" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -10653,28 +10662,28 @@
         <v>43873.61917824074</v>
       </c>
       <c r="C222" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D222" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E222" s="2">
         <v>42537</v>
       </c>
       <c r="F222" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G222" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H222" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="K222" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -10685,28 +10694,28 @@
         <v>43877.12111111111</v>
       </c>
       <c r="C223" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D223" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E223" s="2">
         <v>42143</v>
       </c>
       <c r="F223" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G223" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H223" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K223" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -10717,28 +10726,28 @@
         <v>43877.12481481482</v>
       </c>
       <c r="C224" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D224" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E224" s="2">
         <v>42143</v>
       </c>
       <c r="F224" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G224" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H224" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K224" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -10749,16 +10758,16 @@
         <v>43877.13001157407</v>
       </c>
       <c r="C225" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D225" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F225" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K225" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -10769,28 +10778,28 @@
         <v>43877.13630787037</v>
       </c>
       <c r="C226" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D226" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E226" s="2">
         <v>42143</v>
       </c>
       <c r="F226" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G226" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H226" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K226" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -10801,28 +10810,28 @@
         <v>43877.17745370371</v>
       </c>
       <c r="C227" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D227" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E227" s="2">
         <v>42137</v>
       </c>
       <c r="F227" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G227" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H227" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="K227" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -10833,28 +10842,28 @@
         <v>43877.18814814815</v>
       </c>
       <c r="C228" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D228" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E228" s="2">
         <v>42803</v>
       </c>
       <c r="F228" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G228" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H228" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="K228" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10865,28 +10874,28 @@
         <v>43877.19053240741</v>
       </c>
       <c r="C229" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D229" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E229" s="2">
         <v>42456</v>
       </c>
       <c r="F229" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G229" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H229" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="K229" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -10897,28 +10906,28 @@
         <v>43877.19284722222</v>
       </c>
       <c r="C230" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D230" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E230" s="2">
         <v>42338</v>
       </c>
       <c r="F230" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G230" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H230" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="K230" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -10929,28 +10938,28 @@
         <v>43877.19496527778</v>
       </c>
       <c r="C231" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D231" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E231" s="2">
         <v>42687</v>
       </c>
       <c r="F231" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G231" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H231" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="K231" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -10961,28 +10970,28 @@
         <v>43877.52261574074</v>
       </c>
       <c r="C232" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D232" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E232" s="2">
         <v>42258</v>
       </c>
       <c r="F232" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G232" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H232" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="K232" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -10993,28 +11002,28 @@
         <v>43877.53150462963</v>
       </c>
       <c r="C233" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D233" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E233" s="2">
         <v>42258</v>
       </c>
       <c r="F233" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G233" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H233" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="K233" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -11025,28 +11034,28 @@
         <v>43877.53585648148</v>
       </c>
       <c r="C234" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D234" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E234" s="2">
         <v>42521</v>
       </c>
       <c r="F234" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G234" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H234" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="K234" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -11057,28 +11066,28 @@
         <v>43877.53952546296</v>
       </c>
       <c r="C235" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D235" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E235" s="2">
         <v>42521</v>
       </c>
       <c r="F235" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G235" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H235" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="K235" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -11089,28 +11098,28 @@
         <v>43877.55438657408</v>
       </c>
       <c r="C236" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D236" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E236" s="2">
         <v>42096</v>
       </c>
       <c r="F236" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G236" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H236" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="K236" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -11121,28 +11130,28 @@
         <v>43877.56143518518</v>
       </c>
       <c r="C237" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D237" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E237" s="2">
         <v>42096</v>
       </c>
       <c r="F237" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G237" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H237" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="K237" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -11153,28 +11162,28 @@
         <v>43877.57177083333</v>
       </c>
       <c r="C238" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D238" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E238" s="2">
         <v>43861</v>
       </c>
       <c r="F238" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G238" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H238" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="K238" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -11185,28 +11194,28 @@
         <v>43877.57620370371</v>
       </c>
       <c r="C239" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D239" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E239" s="2">
         <v>43726</v>
       </c>
       <c r="F239" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G239" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H239" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="K239" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -11217,28 +11226,28 @@
         <v>43877.58754629629</v>
       </c>
       <c r="C240" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D240" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E240" s="2">
         <v>43651</v>
       </c>
       <c r="F240" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G240" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H240" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="K240" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -11249,28 +11258,28 @@
         <v>43877.59430555555</v>
       </c>
       <c r="C241" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D241" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E241" s="2">
         <v>42767</v>
       </c>
       <c r="F241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G241" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H241" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="K241" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -11281,28 +11290,28 @@
         <v>43877.59903935185</v>
       </c>
       <c r="C242" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D242" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E242" s="2">
         <v>43817</v>
       </c>
       <c r="F242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G242" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H242" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="K242" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -11313,28 +11322,28 @@
         <v>43877.60863425926</v>
       </c>
       <c r="C243" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D243" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E243" s="2">
         <v>43052</v>
       </c>
       <c r="F243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G243" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H243" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="K243" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -11345,28 +11354,28 @@
         <v>43877.61291666667</v>
       </c>
       <c r="C244" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D244" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E244" s="2">
         <v>43531</v>
       </c>
       <c r="F244" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G244" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H244" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="K244" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -11377,28 +11386,28 @@
         <v>43877.62136574074</v>
       </c>
       <c r="C245" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D245" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E245" s="2">
         <v>43503</v>
       </c>
       <c r="F245" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G245" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H245" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="K245" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -11409,28 +11418,28 @@
         <v>43877.62575231482</v>
       </c>
       <c r="C246" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D246" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E246" s="2">
         <v>43743</v>
       </c>
       <c r="F246" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G246" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H246" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="K246" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -11441,28 +11450,28 @@
         <v>43877.63702546297</v>
       </c>
       <c r="C247" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D247" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E247" s="2">
         <v>42529</v>
       </c>
       <c r="F247" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G247" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H247" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="K247" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -11473,16 +11482,16 @@
         <v>43877.64563657407</v>
       </c>
       <c r="C248" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D248" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F248" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K248" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -11493,28 +11502,28 @@
         <v>43877.663125</v>
       </c>
       <c r="C249" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D249" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E249" s="2">
         <v>42200</v>
       </c>
       <c r="F249" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G249" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H249" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="K249" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
   </sheetData>
@@ -11562,230 +11571,231 @@
     <hyperlink ref="J25" r:id="rId41"/>
     <hyperlink ref="J26" r:id="rId42"/>
     <hyperlink ref="J27" r:id="rId43"/>
-    <hyperlink ref="J28" r:id="rId44"/>
-    <hyperlink ref="I29" r:id="rId45"/>
-    <hyperlink ref="J29" r:id="rId46"/>
-    <hyperlink ref="I30" r:id="rId47"/>
-    <hyperlink ref="J30" r:id="rId48"/>
-    <hyperlink ref="J32" r:id="rId49"/>
-    <hyperlink ref="J33" r:id="rId50"/>
-    <hyperlink ref="J34" r:id="rId51"/>
-    <hyperlink ref="J35" r:id="rId52"/>
-    <hyperlink ref="J36" r:id="rId53"/>
-    <hyperlink ref="J37" r:id="rId54"/>
-    <hyperlink ref="J38" r:id="rId55"/>
-    <hyperlink ref="J39" r:id="rId56"/>
-    <hyperlink ref="J40" r:id="rId57"/>
-    <hyperlink ref="J41" r:id="rId58"/>
-    <hyperlink ref="J42" r:id="rId59"/>
-    <hyperlink ref="J43" r:id="rId60"/>
-    <hyperlink ref="J44" r:id="rId61"/>
-    <hyperlink ref="J45" r:id="rId62"/>
-    <hyperlink ref="I46" r:id="rId63"/>
-    <hyperlink ref="J46" r:id="rId64"/>
-    <hyperlink ref="J47" r:id="rId65"/>
-    <hyperlink ref="J48" r:id="rId66"/>
-    <hyperlink ref="J49" r:id="rId67"/>
-    <hyperlink ref="J50" r:id="rId68"/>
-    <hyperlink ref="J51" r:id="rId69"/>
-    <hyperlink ref="J52" r:id="rId70"/>
-    <hyperlink ref="J53" r:id="rId71"/>
-    <hyperlink ref="I54" r:id="rId72"/>
-    <hyperlink ref="J55" r:id="rId73"/>
-    <hyperlink ref="J56" r:id="rId74"/>
-    <hyperlink ref="J57" r:id="rId75"/>
-    <hyperlink ref="I58" r:id="rId76"/>
-    <hyperlink ref="J58" r:id="rId77"/>
-    <hyperlink ref="J59" r:id="rId78"/>
-    <hyperlink ref="J60" r:id="rId79"/>
-    <hyperlink ref="J61" r:id="rId80"/>
-    <hyperlink ref="J62" r:id="rId81"/>
-    <hyperlink ref="J63" r:id="rId82"/>
-    <hyperlink ref="J65" r:id="rId83"/>
-    <hyperlink ref="J66" r:id="rId84"/>
-    <hyperlink ref="J67" r:id="rId85"/>
-    <hyperlink ref="J68" r:id="rId86"/>
-    <hyperlink ref="J69" r:id="rId87"/>
-    <hyperlink ref="J70" r:id="rId88"/>
-    <hyperlink ref="J71" r:id="rId89"/>
-    <hyperlink ref="J72" r:id="rId90"/>
-    <hyperlink ref="J73" r:id="rId91"/>
-    <hyperlink ref="J74" r:id="rId92"/>
-    <hyperlink ref="J75" r:id="rId93"/>
-    <hyperlink ref="J76" r:id="rId94"/>
-    <hyperlink ref="I77" r:id="rId95"/>
-    <hyperlink ref="J77" r:id="rId96"/>
-    <hyperlink ref="J78" r:id="rId97"/>
-    <hyperlink ref="J79" r:id="rId98"/>
-    <hyperlink ref="J80" r:id="rId99"/>
-    <hyperlink ref="J81" r:id="rId100"/>
-    <hyperlink ref="I82" r:id="rId101"/>
-    <hyperlink ref="J82" r:id="rId102"/>
-    <hyperlink ref="J83" r:id="rId103"/>
-    <hyperlink ref="I84" r:id="rId104"/>
-    <hyperlink ref="J84" r:id="rId105"/>
-    <hyperlink ref="I85" r:id="rId106"/>
-    <hyperlink ref="J85" r:id="rId107"/>
-    <hyperlink ref="J86" r:id="rId108"/>
-    <hyperlink ref="J87" r:id="rId109"/>
-    <hyperlink ref="J88" r:id="rId110"/>
-    <hyperlink ref="J89" r:id="rId111"/>
-    <hyperlink ref="J90" r:id="rId112"/>
-    <hyperlink ref="J91" r:id="rId113"/>
-    <hyperlink ref="J92" r:id="rId114"/>
-    <hyperlink ref="J93" r:id="rId115"/>
-    <hyperlink ref="I94" r:id="rId116"/>
-    <hyperlink ref="J94" r:id="rId117"/>
-    <hyperlink ref="I95" r:id="rId118"/>
-    <hyperlink ref="J95" r:id="rId119"/>
-    <hyperlink ref="J96" r:id="rId120"/>
-    <hyperlink ref="I97" r:id="rId121"/>
-    <hyperlink ref="J97" r:id="rId122"/>
-    <hyperlink ref="J98" r:id="rId123"/>
-    <hyperlink ref="J99" r:id="rId124"/>
-    <hyperlink ref="J100" r:id="rId125"/>
-    <hyperlink ref="I101" r:id="rId126"/>
-    <hyperlink ref="J101" r:id="rId127"/>
-    <hyperlink ref="J102" r:id="rId128"/>
-    <hyperlink ref="J103" r:id="rId129"/>
-    <hyperlink ref="J104" r:id="rId130"/>
-    <hyperlink ref="J105" r:id="rId131"/>
-    <hyperlink ref="J106" r:id="rId132"/>
-    <hyperlink ref="J107" r:id="rId133"/>
-    <hyperlink ref="J108" r:id="rId134"/>
-    <hyperlink ref="J109" r:id="rId135"/>
-    <hyperlink ref="J110" r:id="rId136"/>
-    <hyperlink ref="J111" r:id="rId137"/>
-    <hyperlink ref="J112" r:id="rId138"/>
-    <hyperlink ref="J113" r:id="rId139"/>
-    <hyperlink ref="J114" r:id="rId140"/>
-    <hyperlink ref="J115" r:id="rId141"/>
-    <hyperlink ref="I116" r:id="rId142"/>
-    <hyperlink ref="J116" r:id="rId143"/>
-    <hyperlink ref="J117" r:id="rId144"/>
-    <hyperlink ref="J118" r:id="rId145"/>
-    <hyperlink ref="J119" r:id="rId146"/>
-    <hyperlink ref="J120" r:id="rId147"/>
-    <hyperlink ref="J121" r:id="rId148"/>
-    <hyperlink ref="J122" r:id="rId149"/>
-    <hyperlink ref="J123" r:id="rId150"/>
-    <hyperlink ref="I124" r:id="rId151"/>
-    <hyperlink ref="J124" r:id="rId152"/>
-    <hyperlink ref="J125" r:id="rId153"/>
-    <hyperlink ref="I126" r:id="rId154"/>
-    <hyperlink ref="J126" r:id="rId155"/>
-    <hyperlink ref="J127" r:id="rId156"/>
-    <hyperlink ref="J128" r:id="rId157"/>
-    <hyperlink ref="J129" r:id="rId158"/>
-    <hyperlink ref="J130" r:id="rId159"/>
-    <hyperlink ref="J131" r:id="rId160"/>
-    <hyperlink ref="J132" r:id="rId161"/>
-    <hyperlink ref="J133" r:id="rId162"/>
-    <hyperlink ref="J134" r:id="rId163"/>
-    <hyperlink ref="J135" r:id="rId164"/>
-    <hyperlink ref="J136" r:id="rId165"/>
-    <hyperlink ref="J137" r:id="rId166"/>
-    <hyperlink ref="J138" r:id="rId167"/>
-    <hyperlink ref="J139" r:id="rId168"/>
-    <hyperlink ref="J140" r:id="rId169"/>
-    <hyperlink ref="J141" r:id="rId170"/>
-    <hyperlink ref="J142" r:id="rId171"/>
-    <hyperlink ref="J143" r:id="rId172"/>
-    <hyperlink ref="J144" r:id="rId173"/>
-    <hyperlink ref="J145" r:id="rId174"/>
-    <hyperlink ref="J146" r:id="rId175"/>
-    <hyperlink ref="J147" r:id="rId176"/>
-    <hyperlink ref="J148" r:id="rId177"/>
-    <hyperlink ref="J149" r:id="rId178"/>
-    <hyperlink ref="J150" r:id="rId179"/>
-    <hyperlink ref="J151" r:id="rId180"/>
-    <hyperlink ref="J152" r:id="rId181"/>
-    <hyperlink ref="J153" r:id="rId182"/>
-    <hyperlink ref="J154" r:id="rId183"/>
-    <hyperlink ref="J155" r:id="rId184"/>
-    <hyperlink ref="J156" r:id="rId185"/>
-    <hyperlink ref="J157" r:id="rId186"/>
-    <hyperlink ref="J158" r:id="rId187"/>
-    <hyperlink ref="J159" r:id="rId188"/>
-    <hyperlink ref="J160" r:id="rId189"/>
-    <hyperlink ref="J161" r:id="rId190"/>
-    <hyperlink ref="J163" r:id="rId191"/>
-    <hyperlink ref="J165" r:id="rId192"/>
-    <hyperlink ref="J166" r:id="rId193"/>
-    <hyperlink ref="J167" r:id="rId194"/>
-    <hyperlink ref="J168" r:id="rId195"/>
-    <hyperlink ref="J169" r:id="rId196"/>
-    <hyperlink ref="J171" r:id="rId197"/>
-    <hyperlink ref="J172" r:id="rId198"/>
-    <hyperlink ref="J173" r:id="rId199"/>
-    <hyperlink ref="J174" r:id="rId200"/>
-    <hyperlink ref="J175" r:id="rId201"/>
-    <hyperlink ref="J177" r:id="rId202"/>
-    <hyperlink ref="J178" r:id="rId203"/>
-    <hyperlink ref="J179" r:id="rId204"/>
-    <hyperlink ref="J180" r:id="rId205"/>
-    <hyperlink ref="J181" r:id="rId206"/>
-    <hyperlink ref="I185" r:id="rId207"/>
-    <hyperlink ref="J185" r:id="rId208"/>
-    <hyperlink ref="J186" r:id="rId209"/>
-    <hyperlink ref="J187" r:id="rId210"/>
-    <hyperlink ref="I188" r:id="rId211"/>
-    <hyperlink ref="J188" r:id="rId212"/>
-    <hyperlink ref="J189" r:id="rId213"/>
-    <hyperlink ref="J191" r:id="rId214"/>
-    <hyperlink ref="J192" r:id="rId215"/>
-    <hyperlink ref="J193" r:id="rId216"/>
-    <hyperlink ref="J195" r:id="rId217"/>
-    <hyperlink ref="J196" r:id="rId218"/>
-    <hyperlink ref="J197" r:id="rId219"/>
-    <hyperlink ref="J200" r:id="rId220"/>
-    <hyperlink ref="J201" r:id="rId221"/>
-    <hyperlink ref="I202" r:id="rId222"/>
-    <hyperlink ref="J202" r:id="rId223"/>
-    <hyperlink ref="J203" r:id="rId224"/>
-    <hyperlink ref="J204" r:id="rId225"/>
-    <hyperlink ref="J205" r:id="rId226"/>
-    <hyperlink ref="J206" r:id="rId227"/>
-    <hyperlink ref="J207" r:id="rId228"/>
-    <hyperlink ref="J208" r:id="rId229"/>
-    <hyperlink ref="J211" r:id="rId230"/>
-    <hyperlink ref="J212" r:id="rId231"/>
-    <hyperlink ref="J213" r:id="rId232"/>
-    <hyperlink ref="J214" r:id="rId233"/>
-    <hyperlink ref="J215" r:id="rId234"/>
-    <hyperlink ref="J216" r:id="rId235"/>
-    <hyperlink ref="I217" r:id="rId236"/>
-    <hyperlink ref="J217" r:id="rId237"/>
-    <hyperlink ref="J218" r:id="rId238"/>
-    <hyperlink ref="J219" r:id="rId239"/>
-    <hyperlink ref="J220" r:id="rId240"/>
-    <hyperlink ref="J221" r:id="rId241"/>
-    <hyperlink ref="J222" r:id="rId242"/>
-    <hyperlink ref="J223" r:id="rId243"/>
-    <hyperlink ref="J224" r:id="rId244"/>
-    <hyperlink ref="J226" r:id="rId245"/>
-    <hyperlink ref="J227" r:id="rId246"/>
-    <hyperlink ref="J228" r:id="rId247"/>
-    <hyperlink ref="J229" r:id="rId248"/>
-    <hyperlink ref="J230" r:id="rId249"/>
-    <hyperlink ref="J231" r:id="rId250"/>
-    <hyperlink ref="J232" r:id="rId251"/>
-    <hyperlink ref="J233" r:id="rId252"/>
-    <hyperlink ref="J234" r:id="rId253"/>
-    <hyperlink ref="J235" r:id="rId254"/>
-    <hyperlink ref="J236" r:id="rId255"/>
-    <hyperlink ref="J237" r:id="rId256"/>
-    <hyperlink ref="J238" r:id="rId257"/>
-    <hyperlink ref="J239" r:id="rId258"/>
-    <hyperlink ref="J240" r:id="rId259"/>
-    <hyperlink ref="J241" r:id="rId260"/>
-    <hyperlink ref="J242" r:id="rId261"/>
-    <hyperlink ref="J243" r:id="rId262"/>
-    <hyperlink ref="J244" r:id="rId263"/>
-    <hyperlink ref="J245" r:id="rId264"/>
-    <hyperlink ref="J246" r:id="rId265"/>
-    <hyperlink ref="J247" r:id="rId266"/>
-    <hyperlink ref="J249" r:id="rId267"/>
+    <hyperlink ref="I28" r:id="rId44"/>
+    <hyperlink ref="J28" r:id="rId45"/>
+    <hyperlink ref="I29" r:id="rId46"/>
+    <hyperlink ref="J29" r:id="rId47"/>
+    <hyperlink ref="I30" r:id="rId48"/>
+    <hyperlink ref="J30" r:id="rId49"/>
+    <hyperlink ref="J32" r:id="rId50"/>
+    <hyperlink ref="J33" r:id="rId51"/>
+    <hyperlink ref="J34" r:id="rId52"/>
+    <hyperlink ref="J35" r:id="rId53"/>
+    <hyperlink ref="J36" r:id="rId54"/>
+    <hyperlink ref="J37" r:id="rId55"/>
+    <hyperlink ref="J38" r:id="rId56"/>
+    <hyperlink ref="J39" r:id="rId57"/>
+    <hyperlink ref="J40" r:id="rId58"/>
+    <hyperlink ref="J41" r:id="rId59"/>
+    <hyperlink ref="J42" r:id="rId60"/>
+    <hyperlink ref="J43" r:id="rId61"/>
+    <hyperlink ref="J44" r:id="rId62"/>
+    <hyperlink ref="J45" r:id="rId63"/>
+    <hyperlink ref="I46" r:id="rId64"/>
+    <hyperlink ref="J46" r:id="rId65"/>
+    <hyperlink ref="J47" r:id="rId66"/>
+    <hyperlink ref="J48" r:id="rId67"/>
+    <hyperlink ref="J49" r:id="rId68"/>
+    <hyperlink ref="J50" r:id="rId69"/>
+    <hyperlink ref="J51" r:id="rId70"/>
+    <hyperlink ref="J52" r:id="rId71"/>
+    <hyperlink ref="J53" r:id="rId72"/>
+    <hyperlink ref="I54" r:id="rId73"/>
+    <hyperlink ref="J55" r:id="rId74"/>
+    <hyperlink ref="J56" r:id="rId75"/>
+    <hyperlink ref="J57" r:id="rId76"/>
+    <hyperlink ref="I58" r:id="rId77"/>
+    <hyperlink ref="J58" r:id="rId78"/>
+    <hyperlink ref="J59" r:id="rId79"/>
+    <hyperlink ref="J60" r:id="rId80"/>
+    <hyperlink ref="J61" r:id="rId81"/>
+    <hyperlink ref="J62" r:id="rId82"/>
+    <hyperlink ref="J63" r:id="rId83"/>
+    <hyperlink ref="J65" r:id="rId84"/>
+    <hyperlink ref="J66" r:id="rId85"/>
+    <hyperlink ref="J67" r:id="rId86"/>
+    <hyperlink ref="J68" r:id="rId87"/>
+    <hyperlink ref="J69" r:id="rId88"/>
+    <hyperlink ref="J70" r:id="rId89"/>
+    <hyperlink ref="J71" r:id="rId90"/>
+    <hyperlink ref="J72" r:id="rId91"/>
+    <hyperlink ref="J73" r:id="rId92"/>
+    <hyperlink ref="J74" r:id="rId93"/>
+    <hyperlink ref="J75" r:id="rId94"/>
+    <hyperlink ref="J76" r:id="rId95"/>
+    <hyperlink ref="I77" r:id="rId96"/>
+    <hyperlink ref="J77" r:id="rId97"/>
+    <hyperlink ref="J78" r:id="rId98"/>
+    <hyperlink ref="J79" r:id="rId99"/>
+    <hyperlink ref="J80" r:id="rId100"/>
+    <hyperlink ref="J81" r:id="rId101"/>
+    <hyperlink ref="I82" r:id="rId102"/>
+    <hyperlink ref="J82" r:id="rId103"/>
+    <hyperlink ref="J83" r:id="rId104"/>
+    <hyperlink ref="I84" r:id="rId105"/>
+    <hyperlink ref="J84" r:id="rId106"/>
+    <hyperlink ref="I85" r:id="rId107"/>
+    <hyperlink ref="J85" r:id="rId108"/>
+    <hyperlink ref="J86" r:id="rId109"/>
+    <hyperlink ref="J87" r:id="rId110"/>
+    <hyperlink ref="J88" r:id="rId111"/>
+    <hyperlink ref="J89" r:id="rId112"/>
+    <hyperlink ref="J90" r:id="rId113"/>
+    <hyperlink ref="J91" r:id="rId114"/>
+    <hyperlink ref="J92" r:id="rId115"/>
+    <hyperlink ref="J93" r:id="rId116"/>
+    <hyperlink ref="I94" r:id="rId117"/>
+    <hyperlink ref="J94" r:id="rId118"/>
+    <hyperlink ref="I95" r:id="rId119"/>
+    <hyperlink ref="J95" r:id="rId120"/>
+    <hyperlink ref="J96" r:id="rId121"/>
+    <hyperlink ref="I97" r:id="rId122"/>
+    <hyperlink ref="J97" r:id="rId123"/>
+    <hyperlink ref="J98" r:id="rId124"/>
+    <hyperlink ref="J99" r:id="rId125"/>
+    <hyperlink ref="J100" r:id="rId126"/>
+    <hyperlink ref="I101" r:id="rId127"/>
+    <hyperlink ref="J101" r:id="rId128"/>
+    <hyperlink ref="J102" r:id="rId129"/>
+    <hyperlink ref="J103" r:id="rId130"/>
+    <hyperlink ref="J104" r:id="rId131"/>
+    <hyperlink ref="J105" r:id="rId132"/>
+    <hyperlink ref="J106" r:id="rId133"/>
+    <hyperlink ref="J107" r:id="rId134"/>
+    <hyperlink ref="J108" r:id="rId135"/>
+    <hyperlink ref="J109" r:id="rId136"/>
+    <hyperlink ref="J110" r:id="rId137"/>
+    <hyperlink ref="J111" r:id="rId138"/>
+    <hyperlink ref="J112" r:id="rId139"/>
+    <hyperlink ref="J113" r:id="rId140"/>
+    <hyperlink ref="J114" r:id="rId141"/>
+    <hyperlink ref="J115" r:id="rId142"/>
+    <hyperlink ref="I116" r:id="rId143"/>
+    <hyperlink ref="J116" r:id="rId144"/>
+    <hyperlink ref="J117" r:id="rId145"/>
+    <hyperlink ref="J118" r:id="rId146"/>
+    <hyperlink ref="J119" r:id="rId147"/>
+    <hyperlink ref="J120" r:id="rId148"/>
+    <hyperlink ref="J121" r:id="rId149"/>
+    <hyperlink ref="J122" r:id="rId150"/>
+    <hyperlink ref="J123" r:id="rId151"/>
+    <hyperlink ref="I124" r:id="rId152"/>
+    <hyperlink ref="J124" r:id="rId153"/>
+    <hyperlink ref="J125" r:id="rId154"/>
+    <hyperlink ref="I126" r:id="rId155"/>
+    <hyperlink ref="J126" r:id="rId156"/>
+    <hyperlink ref="J127" r:id="rId157"/>
+    <hyperlink ref="J128" r:id="rId158"/>
+    <hyperlink ref="J129" r:id="rId159"/>
+    <hyperlink ref="J130" r:id="rId160"/>
+    <hyperlink ref="J131" r:id="rId161"/>
+    <hyperlink ref="J132" r:id="rId162"/>
+    <hyperlink ref="J133" r:id="rId163"/>
+    <hyperlink ref="J134" r:id="rId164"/>
+    <hyperlink ref="J135" r:id="rId165"/>
+    <hyperlink ref="J136" r:id="rId166"/>
+    <hyperlink ref="J137" r:id="rId167"/>
+    <hyperlink ref="J138" r:id="rId168"/>
+    <hyperlink ref="J139" r:id="rId169"/>
+    <hyperlink ref="J140" r:id="rId170"/>
+    <hyperlink ref="J141" r:id="rId171"/>
+    <hyperlink ref="J142" r:id="rId172"/>
+    <hyperlink ref="J143" r:id="rId173"/>
+    <hyperlink ref="J144" r:id="rId174"/>
+    <hyperlink ref="J145" r:id="rId175"/>
+    <hyperlink ref="J146" r:id="rId176"/>
+    <hyperlink ref="J147" r:id="rId177"/>
+    <hyperlink ref="J148" r:id="rId178"/>
+    <hyperlink ref="J149" r:id="rId179"/>
+    <hyperlink ref="J150" r:id="rId180"/>
+    <hyperlink ref="J151" r:id="rId181"/>
+    <hyperlink ref="J152" r:id="rId182"/>
+    <hyperlink ref="J153" r:id="rId183"/>
+    <hyperlink ref="J154" r:id="rId184"/>
+    <hyperlink ref="J155" r:id="rId185"/>
+    <hyperlink ref="J156" r:id="rId186"/>
+    <hyperlink ref="J157" r:id="rId187"/>
+    <hyperlink ref="J158" r:id="rId188"/>
+    <hyperlink ref="J159" r:id="rId189"/>
+    <hyperlink ref="J160" r:id="rId190"/>
+    <hyperlink ref="J161" r:id="rId191"/>
+    <hyperlink ref="J163" r:id="rId192"/>
+    <hyperlink ref="J165" r:id="rId193"/>
+    <hyperlink ref="J166" r:id="rId194"/>
+    <hyperlink ref="J167" r:id="rId195"/>
+    <hyperlink ref="J168" r:id="rId196"/>
+    <hyperlink ref="J169" r:id="rId197"/>
+    <hyperlink ref="J171" r:id="rId198"/>
+    <hyperlink ref="J172" r:id="rId199"/>
+    <hyperlink ref="J173" r:id="rId200"/>
+    <hyperlink ref="J174" r:id="rId201"/>
+    <hyperlink ref="J175" r:id="rId202"/>
+    <hyperlink ref="J177" r:id="rId203"/>
+    <hyperlink ref="J178" r:id="rId204"/>
+    <hyperlink ref="J179" r:id="rId205"/>
+    <hyperlink ref="J180" r:id="rId206"/>
+    <hyperlink ref="J181" r:id="rId207"/>
+    <hyperlink ref="I185" r:id="rId208"/>
+    <hyperlink ref="J185" r:id="rId209"/>
+    <hyperlink ref="J186" r:id="rId210"/>
+    <hyperlink ref="J187" r:id="rId211"/>
+    <hyperlink ref="I188" r:id="rId212"/>
+    <hyperlink ref="J188" r:id="rId213"/>
+    <hyperlink ref="J189" r:id="rId214"/>
+    <hyperlink ref="J191" r:id="rId215"/>
+    <hyperlink ref="J192" r:id="rId216"/>
+    <hyperlink ref="J193" r:id="rId217"/>
+    <hyperlink ref="J195" r:id="rId218"/>
+    <hyperlink ref="J196" r:id="rId219"/>
+    <hyperlink ref="J197" r:id="rId220"/>
+    <hyperlink ref="J200" r:id="rId221"/>
+    <hyperlink ref="J201" r:id="rId222"/>
+    <hyperlink ref="I202" r:id="rId223"/>
+    <hyperlink ref="J202" r:id="rId224"/>
+    <hyperlink ref="J203" r:id="rId225"/>
+    <hyperlink ref="J204" r:id="rId226"/>
+    <hyperlink ref="J205" r:id="rId227"/>
+    <hyperlink ref="J206" r:id="rId228"/>
+    <hyperlink ref="J207" r:id="rId229"/>
+    <hyperlink ref="J208" r:id="rId230"/>
+    <hyperlink ref="J211" r:id="rId231"/>
+    <hyperlink ref="J212" r:id="rId232"/>
+    <hyperlink ref="J213" r:id="rId233"/>
+    <hyperlink ref="J214" r:id="rId234"/>
+    <hyperlink ref="J215" r:id="rId235"/>
+    <hyperlink ref="J216" r:id="rId236"/>
+    <hyperlink ref="I217" r:id="rId237"/>
+    <hyperlink ref="J217" r:id="rId238"/>
+    <hyperlink ref="J218" r:id="rId239"/>
+    <hyperlink ref="J219" r:id="rId240"/>
+    <hyperlink ref="J220" r:id="rId241"/>
+    <hyperlink ref="J221" r:id="rId242"/>
+    <hyperlink ref="J222" r:id="rId243"/>
+    <hyperlink ref="J223" r:id="rId244"/>
+    <hyperlink ref="J224" r:id="rId245"/>
+    <hyperlink ref="J226" r:id="rId246"/>
+    <hyperlink ref="J227" r:id="rId247"/>
+    <hyperlink ref="J228" r:id="rId248"/>
+    <hyperlink ref="J229" r:id="rId249"/>
+    <hyperlink ref="J230" r:id="rId250"/>
+    <hyperlink ref="J231" r:id="rId251"/>
+    <hyperlink ref="J232" r:id="rId252"/>
+    <hyperlink ref="J233" r:id="rId253"/>
+    <hyperlink ref="J234" r:id="rId254"/>
+    <hyperlink ref="J235" r:id="rId255"/>
+    <hyperlink ref="J236" r:id="rId256"/>
+    <hyperlink ref="J237" r:id="rId257"/>
+    <hyperlink ref="J238" r:id="rId258"/>
+    <hyperlink ref="J239" r:id="rId259"/>
+    <hyperlink ref="J240" r:id="rId260"/>
+    <hyperlink ref="J241" r:id="rId261"/>
+    <hyperlink ref="J242" r:id="rId262"/>
+    <hyperlink ref="J243" r:id="rId263"/>
+    <hyperlink ref="J244" r:id="rId264"/>
+    <hyperlink ref="J245" r:id="rId265"/>
+    <hyperlink ref="J246" r:id="rId266"/>
+    <hyperlink ref="J247" r:id="rId267"/>
+    <hyperlink ref="J249" r:id="rId268"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
